--- a/SCCC/Input_Power Meter/Level 1.xlsx
+++ b/SCCC/Input_Power Meter/Level 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTPL\WORK\SCCC\primustech_sccc_trend_extractor\Input_Power Meter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTPL\WORK\primustech_trend_extractor\SCCC\Input_Power Meter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D8399A-5F14-44A6-B532-99DA7C7A3EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926A155E-52D5-4059-A036-42C231603A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A80"/>
+      <selection activeCell="A80" sqref="A1:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
